--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_14_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_14_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33843.3897794027</v>
+        <v>6734834.566101135</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33843.3897794027</v>
+        <v>6734834.566101135</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18998.05640230729</v>
+        <v>1146088.991915777</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18998.05640230729</v>
+        <v>1146088.991915777</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265997638.186287</v>
+        <v>51298569.6330949</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11399.16889520618</v>
+        <v>1216272.79935647</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21728.22173918518</v>
+        <v>2255258.85763086</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32057.27458316417</v>
+        <v>3294244.915905252</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42926.63892670479</v>
+        <v>4298664.29051159</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53796.00327024538</v>
+        <v>5303083.665117929</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64665.36761378597</v>
+        <v>6307503.039724264</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>75534.73195732657</v>
+        <v>7311922.414330596</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>86404.09630086715</v>
+        <v>8316341.78893693</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>97084.27048374577</v>
+        <v>9321024.28047194</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>107789.3901211631</v>
+        <v>10330670.91746202</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>118494.509758586</v>
+        <v>11340317.55445171</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>129199.6293960093</v>
+        <v>12349964.19144136</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>139904.7490334307</v>
+        <v>13359610.82843121</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>150609.8686708463</v>
+        <v>14369257.46542171</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>161314.9883082711</v>
+        <v>15378904.10241119</v>
       </c>
     </row>
   </sheetData>
